--- a/Excel/beräkningar_fond.xlsx
+++ b/Excel/beräkningar_fond.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34958\Downloads\ONLINE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34958\Downloads\ONLINE\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -567,7 +567,7 @@
   <dimension ref="E3:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -581,7 +581,7 @@
       </c>
       <c r="M3">
         <f>I5-I4</f>
-        <v>1050</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="4" spans="5:13" x14ac:dyDescent="0.35">
@@ -602,7 +602,7 @@
       </c>
       <c r="M4">
         <f>M3/I4</f>
-        <v>0.15107913669064749</v>
+        <v>0.43884892086330934</v>
       </c>
     </row>
     <row r="5" spans="5:13" x14ac:dyDescent="0.35">
@@ -610,20 +610,20 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
       <c r="I5">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L5" t="s">
         <v>4</v>
       </c>
       <c r="M5">
         <f>M4*F5</f>
-        <v>0.75539568345323738</v>
+        <v>4.3884892086330938</v>
       </c>
     </row>
     <row r="7" spans="5:13" x14ac:dyDescent="0.35">
@@ -632,7 +632,7 @@
       </c>
       <c r="F7">
         <f>F4*M5</f>
-        <v>151.07913669064749</v>
+        <v>877.69784172661878</v>
       </c>
     </row>
   </sheetData>
